--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>512791.6872287864</v>
+        <v>508944.2668412114</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33364938.17190715</v>
+        <v>33305450.46443976</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6119518.290167996</v>
+        <v>6063412.65681671</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4937460.16851365</v>
+        <v>4959600.826449923</v>
       </c>
     </row>
     <row r="11">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.87621500600059</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>17.87621500600059</v>
+        <v>13.48781516894255</v>
       </c>
       <c r="D5" t="n">
-        <v>13.66038389038339</v>
+        <v>13.48781516894255</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>13.48781516894255</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>11.8800676008046</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>13.48781516894255</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>13.48781516894255</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>13.48781516894255</v>
       </c>
       <c r="F6" t="n">
-        <v>17.87621500600059</v>
+        <v>11.8800676008046</v>
       </c>
       <c r="G6" t="n">
-        <v>15.7453701772853</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>17.87621500600059</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>17.87621500600059</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>15.74537017728531</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>17.87621500600059</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.87621500600059</v>
+        <v>13.48781516894255</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>13.48781516894255</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>17.87621500600059</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>13.48781516894255</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>11.8800676008046</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1217,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E9" t="n">
-        <v>37.06736141641883</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F9" t="n">
-        <v>41.31500304752735</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="G9" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="H9" t="n">
-        <v>40.6378963153706</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="T10" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="U10" t="n">
-        <v>17.8422975499833</v>
       </c>
       <c r="V10" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>414.496143130328</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>321.2276401352009</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T12" t="n">
         <v>124.8306395731037</v>
@@ -1530,22 +1530,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>86.27432500780395</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>114.2435844806795</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>292.4677344004114</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>283.2108984505413</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1770,7 +1770,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>32.55155306112975</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>124.9554984777209</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>217.0028616587195</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>361.4649050157276</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258575</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>103.2358336838876</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2083,16 +2083,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>177.6968439934195</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>395.5076644073176</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>113.2245940976143</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>107.8171437072183</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>35.26248189144187</v>
       </c>
       <c r="G22" t="n">
         <v>163.0937685836068</v>
@@ -2259,7 +2259,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2326,7 +2326,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>411.4569249048286</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>77.78700738317528</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2563,10 +2563,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>172.9710556636505</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>36.56759220569678</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -2857,7 +2857,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>68.55682805359969</v>
+        <v>104.0015102629165</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2967,10 +2967,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>124.1109385173044</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>232.7566059418219</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>328.4766313960964</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>72.96516427287749</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3207,7 +3207,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>93.53818910684689</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>128.9037859147742</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258614</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>28.83434871905844</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
@@ -3486,10 +3486,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3511,16 +3511,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>99.38643120525084</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>94.97445292880394</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.59401641830628</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3720,7 +3720,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>38.08064147381526</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>170.8454278428343</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3915,7 +3915,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>63.61660906649286</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -3957,7 +3957,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>52.46272922979684</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3979,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>161.316692321187</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
@@ -4030,16 +4030,16 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>193.5421915596912</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>132.1049606362618</v>
       </c>
       <c r="G46" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>126.0809427646072</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.2852476008679</v>
+        <v>53.9512606757702</v>
       </c>
       <c r="C5" t="n">
-        <v>15.22846476652387</v>
+        <v>40.3272049495656</v>
       </c>
       <c r="D5" t="n">
-        <v>1.430097200480047</v>
+        <v>26.70314922336101</v>
       </c>
       <c r="E5" t="n">
-        <v>1.430097200480047</v>
+        <v>13.07909349715641</v>
       </c>
       <c r="F5" t="n">
-        <v>1.430097200480047</v>
+        <v>1.079025213515404</v>
       </c>
       <c r="G5" t="n">
-        <v>1.430097200480047</v>
+        <v>1.079025213515404</v>
       </c>
       <c r="H5" t="n">
-        <v>1.430097200480047</v>
+        <v>1.079025213515404</v>
       </c>
       <c r="I5" t="n">
-        <v>3.20320217092046</v>
+        <v>2.319676963882248</v>
       </c>
       <c r="J5" t="n">
-        <v>8.00601892539037</v>
+        <v>5.950292136425706</v>
       </c>
       <c r="K5" t="n">
-        <v>15.20419623853373</v>
+        <v>11.39164314017451</v>
       </c>
       <c r="L5" t="n">
-        <v>24.13417170186615</v>
+        <v>18.14212021749408</v>
       </c>
       <c r="M5" t="n">
-        <v>34.0704900268879</v>
+        <v>25.65332664369619</v>
       </c>
       <c r="N5" t="n">
-        <v>44.16758837050948</v>
+        <v>33.2860722425988</v>
       </c>
       <c r="O5" t="n">
-        <v>53.70199201639165</v>
+        <v>40.4934574724594</v>
       </c>
       <c r="P5" t="n">
-        <v>61.83938494192772</v>
+        <v>46.64479401739485</v>
       </c>
       <c r="Q5" t="n">
-        <v>67.95022813896169</v>
+        <v>51.2641915839452</v>
       </c>
       <c r="R5" t="n">
-        <v>71.50486002400235</v>
+        <v>53.9512606757702</v>
       </c>
       <c r="S5" t="n">
-        <v>71.50486002400235</v>
+        <v>53.9512606757702</v>
       </c>
       <c r="T5" t="n">
-        <v>71.50486002400235</v>
+        <v>53.9512606757702</v>
       </c>
       <c r="U5" t="n">
-        <v>71.50486002400235</v>
+        <v>53.9512606757702</v>
       </c>
       <c r="V5" t="n">
-        <v>71.50486002400235</v>
+        <v>53.9512606757702</v>
       </c>
       <c r="W5" t="n">
-        <v>70.68980947543972</v>
+        <v>53.9512606757702</v>
       </c>
       <c r="X5" t="n">
-        <v>55.58775009515446</v>
+        <v>53.9512606757702</v>
       </c>
       <c r="Y5" t="n">
-        <v>51.34203043521194</v>
+        <v>53.9512606757702</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.44807718965832</v>
+        <v>40.3272049495656</v>
       </c>
       <c r="C6" t="n">
-        <v>53.44807718965832</v>
+        <v>40.3272049495656</v>
       </c>
       <c r="D6" t="n">
-        <v>53.44807718965832</v>
+        <v>26.70314922336101</v>
       </c>
       <c r="E6" t="n">
-        <v>53.44807718965832</v>
+        <v>13.07909349715641</v>
       </c>
       <c r="F6" t="n">
-        <v>35.39129435531429</v>
+        <v>1.079025213515404</v>
       </c>
       <c r="G6" t="n">
-        <v>19.48688003482408</v>
+        <v>1.079025213515404</v>
       </c>
       <c r="H6" t="n">
-        <v>1.430097200480047</v>
+        <v>1.079025213515404</v>
       </c>
       <c r="I6" t="n">
-        <v>2.472533454021332</v>
+        <v>14.43196223076853</v>
       </c>
       <c r="J6" t="n">
-        <v>5.333058210394939</v>
+        <v>16.5943317553315</v>
       </c>
       <c r="K6" t="n">
-        <v>10.22215063671717</v>
+        <v>23.0712666747239</v>
       </c>
       <c r="L6" t="n">
-        <v>21.4111442965427</v>
+        <v>28.04077149406796</v>
       </c>
       <c r="M6" t="n">
-        <v>29.08267835604334</v>
+        <v>33.83994922184304</v>
       </c>
       <c r="N6" t="n">
-        <v>36.95725509473692</v>
+        <v>39.79261392808045</v>
       </c>
       <c r="O6" t="n">
-        <v>44.16095438720241</v>
+        <v>45.23813918684131</v>
       </c>
       <c r="P6" t="n">
-        <v>49.94255815875406</v>
+        <v>49.60865329298415</v>
       </c>
       <c r="Q6" t="n">
-        <v>53.80740716806177</v>
+        <v>52.53022623030743</v>
       </c>
       <c r="R6" t="n">
-        <v>71.50486002400235</v>
+        <v>53.9512606757702</v>
       </c>
       <c r="S6" t="n">
-        <v>53.44807718965832</v>
+        <v>53.9512606757702</v>
       </c>
       <c r="T6" t="n">
-        <v>53.44807718965832</v>
+        <v>53.9512606757702</v>
       </c>
       <c r="U6" t="n">
-        <v>53.44807718965832</v>
+        <v>53.9512606757702</v>
       </c>
       <c r="V6" t="n">
-        <v>53.44807718965832</v>
+        <v>53.9512606757702</v>
       </c>
       <c r="W6" t="n">
-        <v>53.44807718965832</v>
+        <v>53.9512606757702</v>
       </c>
       <c r="X6" t="n">
-        <v>53.44807718965832</v>
+        <v>53.9512606757702</v>
       </c>
       <c r="Y6" t="n">
-        <v>53.44807718965832</v>
+        <v>53.9512606757702</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.44807718965832</v>
+        <v>14.70308093972</v>
       </c>
       <c r="C7" t="n">
-        <v>53.44807718965832</v>
+        <v>14.70308093972</v>
       </c>
       <c r="D7" t="n">
-        <v>53.44807718965832</v>
+        <v>14.70308093972</v>
       </c>
       <c r="E7" t="n">
-        <v>53.44807718965832</v>
+        <v>14.70308093972</v>
       </c>
       <c r="F7" t="n">
-        <v>53.44807718965832</v>
+        <v>14.70308093972</v>
       </c>
       <c r="G7" t="n">
-        <v>37.54366286916811</v>
+        <v>14.70308093972</v>
       </c>
       <c r="H7" t="n">
-        <v>19.48688003482408</v>
+        <v>14.70308093972</v>
       </c>
       <c r="I7" t="n">
-        <v>1.430097200480047</v>
+        <v>1.079025213515404</v>
       </c>
       <c r="J7" t="n">
-        <v>19.12755005642063</v>
+        <v>14.43196223076853</v>
       </c>
       <c r="K7" t="n">
-        <v>36.82500291236121</v>
+        <v>26.76856253313086</v>
       </c>
       <c r="L7" t="n">
-        <v>54.5224557683018</v>
+        <v>29.62131490371393</v>
       </c>
       <c r="M7" t="n">
-        <v>58.83719469898064</v>
+        <v>32.62914229309656</v>
       </c>
       <c r="N7" t="n">
-        <v>62.72153618863545</v>
+        <v>35.56545026998446</v>
       </c>
       <c r="O7" t="n">
-        <v>66.30935425322008</v>
+        <v>38.27760594185834</v>
       </c>
       <c r="P7" t="n">
-        <v>69.37935242219577</v>
+        <v>40.59832365851707</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.50486002400235</v>
+        <v>53.9512606757702</v>
       </c>
       <c r="R7" t="n">
-        <v>71.50486002400235</v>
+        <v>40.3272049495656</v>
       </c>
       <c r="S7" t="n">
-        <v>71.50486002400235</v>
+        <v>40.3272049495656</v>
       </c>
       <c r="T7" t="n">
-        <v>53.44807718965832</v>
+        <v>40.3272049495656</v>
       </c>
       <c r="U7" t="n">
-        <v>53.44807718965832</v>
+        <v>26.70314922336101</v>
       </c>
       <c r="V7" t="n">
-        <v>53.44807718965832</v>
+        <v>26.70314922336101</v>
       </c>
       <c r="W7" t="n">
-        <v>53.44807718965832</v>
+        <v>14.70308093972</v>
       </c>
       <c r="X7" t="n">
-        <v>53.44807718965832</v>
+        <v>14.70308093972</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.44807718965832</v>
+        <v>14.70308093972</v>
       </c>
     </row>
     <row r="8">
@@ -4783,7 +4783,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
         <v>56.86656659549116</v>
@@ -4807,19 +4807,19 @@
         <v>18.98581709030266</v>
       </c>
       <c r="K8" t="n">
-        <v>35.56734164176019</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L8" t="n">
-        <v>56.13818908654176</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M8" t="n">
-        <v>79.02722044682884</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N8" t="n">
         <v>102.2866202642709</v>
       </c>
       <c r="O8" t="n">
-        <v>124.2498119529545</v>
+        <v>124.2498119529546</v>
       </c>
       <c r="P8" t="n">
         <v>142.9948879228476</v>
@@ -4865,46 +4865,46 @@
         <v>165.2600121901094</v>
       </c>
       <c r="D9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="E9" t="n">
-        <v>127.8182329816055</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="F9" t="n">
-        <v>86.08590667097184</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>31.77020107089877</v>
+        <v>16.73554758011547</v>
       </c>
       <c r="J9" t="n">
-        <v>59.89648401348967</v>
+        <v>23.32497423834099</v>
       </c>
       <c r="K9" t="n">
-        <v>71.1588637208333</v>
+        <v>34.5873539456846</v>
       </c>
       <c r="L9" t="n">
-        <v>86.30252310133811</v>
+        <v>49.73101332618943</v>
       </c>
       <c r="M9" t="n">
-        <v>103.9744593181195</v>
+        <v>67.40294954297083</v>
       </c>
       <c r="N9" t="n">
-        <v>122.1141191020718</v>
+        <v>85.54260932692307</v>
       </c>
       <c r="O9" t="n">
-        <v>138.7083639341947</v>
+        <v>102.136854159046</v>
       </c>
       <c r="P9" t="n">
-        <v>152.0267083864403</v>
+        <v>115.4551986112916</v>
       </c>
       <c r="Q9" t="n">
-        <v>160.929668948206</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
@@ -4962,25 +4962,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>7.439194768028656</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>19.54452373555969</v>
+        <v>82.21448502239217</v>
       </c>
       <c r="L10" t="n">
-        <v>60.44637675261176</v>
+        <v>90.90772746153318</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6121820221549</v>
+        <v>100.0735327310763</v>
       </c>
       <c r="N10" t="n">
-        <v>78.56004492897041</v>
+        <v>109.0213956378918</v>
       </c>
       <c r="O10" t="n">
-        <v>119.4618979460225</v>
+        <v>117.2861952859146</v>
       </c>
       <c r="P10" t="n">
-        <v>160.3637509630746</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
@@ -4989,19 +4989,19 @@
         <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
+        <v>146.5247019534642</v>
+      </c>
+      <c r="T10" t="n">
+        <v>146.5247019534642</v>
+      </c>
+      <c r="U10" t="n">
         <v>104.7923756428305</v>
       </c>
-      <c r="T10" t="n">
+      <c r="V10" t="n">
         <v>63.06004933219679</v>
       </c>
-      <c r="U10" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="V10" t="n">
-        <v>3.305200243802188</v>
-      </c>
       <c r="W10" t="n">
-        <v>3.305200243802188</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="X10" t="n">
         <v>3.305200243802188</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1616.712750254118</v>
+        <v>465.8895244078719</v>
       </c>
       <c r="C11" t="n">
-        <v>1178.570277437541</v>
+        <v>465.8895244078719</v>
       </c>
       <c r="D11" t="n">
-        <v>1178.570277437541</v>
+        <v>465.8895244078719</v>
       </c>
       <c r="E11" t="n">
-        <v>744.7955325958366</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J11" t="n">
         <v>276.0532770435809</v>
@@ -5047,7 +5047,7 @@
         <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5062,31 +5062,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W11" t="n">
-        <v>2035.855213674807</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="X11" t="n">
-        <v>1616.712750254118</v>
+        <v>874.1756481082185</v>
       </c>
       <c r="Y11" t="n">
-        <v>1616.712750254118</v>
+        <v>465.8895244078719</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.5713050663908</v>
+        <v>542.5713050663906</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.1148439030329</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495861</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.9041403765398</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927014</v>
       </c>
       <c r="G12" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043032</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668975</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5138,7 +5138,7 @@
         <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q12" t="n">
         <v>1614.947661807679</v>
@@ -5159,13 +5159,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>945.2284211280532</v>
+        <v>945.228421128053</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669329</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461537</v>
       </c>
     </row>
     <row r="13">
@@ -5178,37 +5178,37 @@
         <v>471.655226289377</v>
       </c>
       <c r="C13" t="n">
-        <v>299.093514772602</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D13" t="n">
-        <v>211.9477319364364</v>
+        <v>471.655226289377</v>
       </c>
       <c r="E13" t="n">
-        <v>211.9477319364364</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F13" t="n">
-        <v>211.9477319364364</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895475</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545215</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.331138940781</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>1412.355695376306</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
         <v>1539.854607180195</v>
@@ -5220,7 +5220,7 @@
         <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
         <v>2360.327577447737</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>880.4839877111824</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="C14" t="n">
-        <v>880.4839877111824</v>
+        <v>1048.259841770409</v>
       </c>
       <c r="D14" t="n">
-        <v>880.4839877111824</v>
+        <v>612.3500569448538</v>
       </c>
       <c r="E14" t="n">
-        <v>446.7092428694776</v>
+        <v>612.3500569448538</v>
       </c>
       <c r="F14" t="n">
-        <v>446.7092428694776</v>
+        <v>612.3500569448538</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.710627381563</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W14" t="n">
-        <v>1592.855172792597</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X14" t="n">
-        <v>1306.78355819609</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y14" t="n">
-        <v>1306.78355819609</v>
+        <v>1486.402314586986</v>
       </c>
     </row>
     <row r="15">
@@ -5336,37 +5336,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668975</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5375,7 +5375,7 @@
         <v>1298.314267034638</v>
       </c>
       <c r="P15" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q15" t="n">
         <v>1614.947661807679</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>959.2942050525578</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C16" t="n">
-        <v>786.7324935357827</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D16" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E16" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
-        <v>289.492000983386</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>413.3628026016839</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M16" t="n">
-        <v>997.5438780199987</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N16" t="n">
-        <v>1567.301592981533</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O16" t="n">
-        <v>1685.067474329295</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T16" t="n">
-        <v>2215.901038951972</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="U16" t="n">
-        <v>1937.514407000715</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V16" t="n">
-        <v>1650.558898871145</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W16" t="n">
-        <v>1378.532494457437</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X16" t="n">
-        <v>1378.532494457437</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y16" t="n">
-        <v>1151.112823771545</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1128.043535737734</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C17" t="n">
-        <v>1128.043535737734</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D17" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E17" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
         <v>512.3249274228018</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5530,37 +5530,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W17" t="n">
-        <v>1955.47212285877</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X17" t="n">
-        <v>1536.329659438081</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y17" t="n">
-        <v>1128.043535737734</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="18">
@@ -5573,43 +5573,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J18" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.1897768536844</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C19" t="n">
-        <v>617.6280653369093</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D19" t="n">
-        <v>451.7500725384321</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E19" t="n">
-        <v>451.7500725384321</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
-        <v>275.0430185001883</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
         <v>192.6919004158277</v>
@@ -5679,46 +5679,46 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M19" t="n">
-        <v>1272.302332591134</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N19" t="n">
-        <v>1842.060047552668</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O19" t="n">
-        <v>1959.82592890043</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2256.048957565022</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T19" t="n">
-        <v>2013.801733468429</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.801733468429</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.846225338859</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.819820925151</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.428066258563</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.0083955726716</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1934.028006962829</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="C20" t="n">
-        <v>1495.885534146253</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="D20" t="n">
-        <v>1059.975749320697</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E20" t="n">
-        <v>626.2010044789922</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F20" t="n">
         <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
         <v>2043.069798152528</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>1734.650987786883</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447737</v>
+        <v>1734.650987786883</v>
       </c>
       <c r="X20" t="n">
-        <v>2360.327577447737</v>
+        <v>1734.650987786883</v>
       </c>
       <c r="Y20" t="n">
-        <v>2360.327577447737</v>
+        <v>1734.650987786883</v>
       </c>
     </row>
     <row r="21">
@@ -5810,25 +5810,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5837,10 +5837,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,58 +5886,58 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1035.320054190021</v>
+        <v>888.1081691988495</v>
       </c>
       <c r="C22" t="n">
-        <v>862.7583426732459</v>
+        <v>715.5464576820744</v>
       </c>
       <c r="D22" t="n">
-        <v>753.852136908379</v>
+        <v>549.6684648835972</v>
       </c>
       <c r="E22" t="n">
-        <v>584.0941331591162</v>
+        <v>379.9104611343344</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9462364092383</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827553</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789087</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T22" t="n">
         <v>2118.080353351143</v>
@@ -5946,16 +5946,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270317</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856609</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.320054190021</v>
+        <v>1307.346458603728</v>
       </c>
       <c r="Y22" t="n">
-        <v>1035.320054190021</v>
+        <v>1079.926787917837</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1777.405347607307</v>
+        <v>1361.792292147884</v>
       </c>
       <c r="C23" t="n">
-        <v>1339.262874790731</v>
+        <v>923.6498193313078</v>
       </c>
       <c r="D23" t="n">
-        <v>903.3530899651751</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="E23" t="n">
         <v>487.7400345057522</v>
@@ -5989,25 +5989,25 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J23" t="n">
-        <v>723.9740178625037</v>
+        <v>288.7193304095858</v>
       </c>
       <c r="K23" t="n">
-        <v>976.4735309700051</v>
+        <v>524.9909807888067</v>
       </c>
       <c r="L23" t="n">
-        <v>1269.589405833906</v>
+        <v>818.1068556527074</v>
       </c>
       <c r="M23" t="n">
-        <v>1595.737294002693</v>
+        <v>1144.254743821495</v>
       </c>
       <c r="N23" t="n">
-        <v>1927.16259597917</v>
+        <v>1475.680045797972</v>
       </c>
       <c r="O23" t="n">
-        <v>2240.118110520463</v>
+        <v>1788.635560339265</v>
       </c>
       <c r="P23" t="n">
-        <v>2507.218401699732</v>
+        <v>2055.735851518534</v>
       </c>
       <c r="Q23" t="n">
         <v>2707.7995967108</v>
@@ -6022,19 +6022,19 @@
         <v>2953.163875962794</v>
       </c>
       <c r="U23" t="n">
-        <v>2953.163875962794</v>
+        <v>2694.093184484308</v>
       </c>
       <c r="V23" t="n">
-        <v>2590.54692589662</v>
+        <v>2615.520449753828</v>
       </c>
       <c r="W23" t="n">
-        <v>2185.691471307654</v>
+        <v>2615.520449753828</v>
       </c>
       <c r="X23" t="n">
-        <v>2185.691471307654</v>
+        <v>2196.377986333139</v>
       </c>
       <c r="Y23" t="n">
-        <v>1777.405347607307</v>
+        <v>1788.091862632792</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>555.2373584323961</v>
+        <v>555.2373584323959</v>
       </c>
       <c r="C24" t="n">
-        <v>448.7808972690384</v>
+        <v>448.7808972690382</v>
       </c>
       <c r="D24" t="n">
-        <v>353.6906084155917</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E24" t="n">
-        <v>259.5701937425454</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F24" t="n">
-        <v>176.186355358707</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G24" t="n">
-        <v>91.81525494836387</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H24" t="n">
         <v>59.87260491495994</v>
@@ -6068,16 +6068,16 @@
         <v>94.08934108643605</v>
       </c>
       <c r="J24" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K24" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L24" t="n">
         <v>564.2447313620956</v>
       </c>
       <c r="M24" t="n">
-        <v>816.0537566647929</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N24" t="n">
         <v>1074.527417586113</v>
@@ -6104,16 +6104,16 @@
         <v>1342.334746698865</v>
       </c>
       <c r="V24" t="n">
-        <v>1143.217228760865</v>
+        <v>1143.217228760864</v>
       </c>
       <c r="W24" t="n">
-        <v>957.8944744940586</v>
+        <v>957.8944744940584</v>
       </c>
       <c r="X24" t="n">
-        <v>803.0270387329385</v>
+        <v>803.0270387329383</v>
       </c>
       <c r="Y24" t="n">
-        <v>676.5412595121593</v>
+        <v>676.5412595121591</v>
       </c>
     </row>
     <row r="25">
@@ -6126,7 +6126,7 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C25" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D25" t="n">
         <v>766.5181902743841</v>
@@ -6138,7 +6138,7 @@
         <v>420.0531324868775</v>
       </c>
       <c r="G25" t="n">
-        <v>255.3119520993959</v>
+        <v>255.311952099396</v>
       </c>
       <c r="H25" t="n">
         <v>122.9678914787119</v>
@@ -6147,25 +6147,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J25" t="n">
-        <v>205.3579537818329</v>
+        <v>118.7782686171431</v>
       </c>
       <c r="K25" t="n">
-        <v>576.9165089205267</v>
+        <v>219.7541432517691</v>
       </c>
       <c r="L25" t="n">
-        <v>1118.997192306786</v>
+        <v>761.8348266380279</v>
       </c>
       <c r="M25" t="n">
-        <v>1709.085451826228</v>
+        <v>1351.92308615747</v>
       </c>
       <c r="N25" t="n">
-        <v>2278.843166787762</v>
+        <v>1921.680801119005</v>
       </c>
       <c r="O25" t="n">
-        <v>2396.609048135524</v>
+        <v>2459.115931692548</v>
       </c>
       <c r="P25" t="n">
-        <v>2739.199106976241</v>
+        <v>2907.391881840573</v>
       </c>
       <c r="Q25" t="n">
         <v>2977.159153071229</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1361.792292147884</v>
+        <v>1542.417845442888</v>
       </c>
       <c r="C26" t="n">
-        <v>923.6498193313078</v>
+        <v>1104.275372626312</v>
       </c>
       <c r="D26" t="n">
-        <v>487.7400345057522</v>
+        <v>668.3655878007562</v>
       </c>
       <c r="E26" t="n">
-        <v>487.7400345057522</v>
+        <v>234.5908429590514</v>
       </c>
       <c r="F26" t="n">
         <v>59.87260491495994</v>
@@ -6226,25 +6226,25 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J26" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K26" t="n">
-        <v>524.9909807888067</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L26" t="n">
-        <v>818.1068556527074</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M26" t="n">
-        <v>1144.254743821495</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N26" t="n">
-        <v>1475.680045797972</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O26" t="n">
-        <v>1788.635560339265</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P26" t="n">
-        <v>2507.218401699732</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q26" t="n">
         <v>2707.7995967108</v>
@@ -6256,22 +6256,22 @@
         <v>2993.630245747997</v>
       </c>
       <c r="T26" t="n">
-        <v>2993.630245747997</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="U26" t="n">
-        <v>2956.693283924061</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="V26" t="n">
-        <v>2594.076333857887</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="W26" t="n">
-        <v>2189.22087926892</v>
+        <v>2377.003539628143</v>
       </c>
       <c r="X26" t="n">
-        <v>1770.078415848231</v>
+        <v>2377.003539628143</v>
       </c>
       <c r="Y26" t="n">
-        <v>1361.792292147884</v>
+        <v>1968.717415927796</v>
       </c>
     </row>
     <row r="27">
@@ -6314,7 +6314,7 @@
         <v>564.2447313620958</v>
       </c>
       <c r="M27" t="n">
-        <v>816.053756664793</v>
+        <v>816.0537566647931</v>
       </c>
       <c r="N27" t="n">
         <v>1074.527417586113</v>
@@ -6363,7 +6363,7 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C28" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D28" t="n">
         <v>766.5181902743841</v>
@@ -6372,7 +6372,7 @@
         <v>596.7601865251213</v>
       </c>
       <c r="F28" t="n">
-        <v>420.0531324868776</v>
+        <v>420.0531324868775</v>
       </c>
       <c r="G28" t="n">
         <v>255.311952099396</v>
@@ -6384,25 +6384,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J28" t="n">
-        <v>205.3579537818329</v>
+        <v>118.7782686171431</v>
       </c>
       <c r="K28" t="n">
-        <v>576.9165089205267</v>
+        <v>215.5783691847013</v>
       </c>
       <c r="L28" t="n">
-        <v>1118.997192306786</v>
+        <v>757.6590525709603</v>
       </c>
       <c r="M28" t="n">
-        <v>1249.601584645315</v>
+        <v>1347.747312090403</v>
       </c>
       <c r="N28" t="n">
-        <v>1753.488026254673</v>
+        <v>1917.505027051937</v>
       </c>
       <c r="O28" t="n">
-        <v>2290.923156828216</v>
+        <v>2454.94015762548</v>
       </c>
       <c r="P28" t="n">
-        <v>2739.199106976241</v>
+        <v>2903.216107773505</v>
       </c>
       <c r="Q28" t="n">
         <v>2977.159153071229</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1165.809223307669</v>
+        <v>1201.511374029331</v>
       </c>
       <c r="C29" t="n">
-        <v>727.6667504910922</v>
+        <v>763.3689012127543</v>
       </c>
       <c r="D29" t="n">
-        <v>727.6667504910922</v>
+        <v>763.3689012127543</v>
       </c>
       <c r="E29" t="n">
-        <v>727.6667504910922</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="F29" t="n">
-        <v>727.6667504910922</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="G29" t="n">
-        <v>328.1640591705694</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="H29" t="n">
-        <v>58.44250771447989</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I29" t="n">
-        <v>129.6424579656605</v>
+        <v>131.0725551661405</v>
       </c>
       <c r="J29" t="n">
-        <v>722.5439206620238</v>
+        <v>288.7193304095858</v>
       </c>
       <c r="K29" t="n">
-        <v>958.8155710412447</v>
+        <v>524.9909807888067</v>
       </c>
       <c r="L29" t="n">
-        <v>1251.931445905145</v>
+        <v>818.1068556527074</v>
       </c>
       <c r="M29" t="n">
-        <v>1578.079334073932</v>
+        <v>1559.030341475336</v>
       </c>
       <c r="N29" t="n">
-        <v>1909.50463605041</v>
+        <v>1890.455643451814</v>
       </c>
       <c r="O29" t="n">
-        <v>2222.460150591702</v>
+        <v>2203.411157993106</v>
       </c>
       <c r="P29" t="n">
-        <v>2489.560441770971</v>
+        <v>2470.511449172376</v>
       </c>
       <c r="Q29" t="n">
-        <v>2805.448801439854</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R29" t="n">
-        <v>2922.125385723994</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="S29" t="n">
-        <v>2881.659015938792</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T29" t="n">
-        <v>2669.887764407904</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U29" t="n">
-        <v>2410.817072929418</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="V29" t="n">
-        <v>2048.200122863244</v>
+        <v>2119.704982887247</v>
       </c>
       <c r="W29" t="n">
-        <v>1643.344668274278</v>
+        <v>1714.84952829828</v>
       </c>
       <c r="X29" t="n">
-        <v>1574.095347008015</v>
+        <v>1609.797497729678</v>
       </c>
       <c r="Y29" t="n">
-        <v>1165.809223307669</v>
+        <v>1201.511374029331</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>553.807261231916</v>
+        <v>555.2373584323959</v>
       </c>
       <c r="C30" t="n">
-        <v>447.3508000685582</v>
+        <v>448.7808972690382</v>
       </c>
       <c r="D30" t="n">
-        <v>352.2605112151115</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E30" t="n">
-        <v>258.1400965420652</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F30" t="n">
-        <v>174.7562581582268</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G30" t="n">
-        <v>90.38515774788364</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H30" t="n">
-        <v>58.44250771447989</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I30" t="n">
-        <v>92.659243885956</v>
+        <v>94.08934108643594</v>
       </c>
       <c r="J30" t="n">
-        <v>186.5525832324232</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K30" t="n">
-        <v>347.0312552865934</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L30" t="n">
-        <v>562.8146341616156</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M30" t="n">
-        <v>814.6236594643131</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N30" t="n">
-        <v>1073.097320385633</v>
+        <v>1074.527417586113</v>
       </c>
       <c r="O30" t="n">
-        <v>1309.550223200164</v>
+        <v>1310.980320400644</v>
       </c>
       <c r="P30" t="n">
-        <v>1499.32452376497</v>
+        <v>1500.75462096545</v>
       </c>
       <c r="Q30" t="n">
-        <v>1626.183617973204</v>
+        <v>1627.613715173684</v>
       </c>
       <c r="R30" t="n">
-        <v>1687.887072399117</v>
+        <v>1689.317169599597</v>
       </c>
       <c r="S30" t="n">
-        <v>1643.266041798851</v>
+        <v>1644.696138999331</v>
       </c>
       <c r="T30" t="n">
-        <v>1517.174486674504</v>
+        <v>1518.604583874984</v>
       </c>
       <c r="U30" t="n">
-        <v>1340.904649498385</v>
+        <v>1342.334746698865</v>
       </c>
       <c r="V30" t="n">
-        <v>1141.787131560384</v>
+        <v>1143.217228760864</v>
       </c>
       <c r="W30" t="n">
-        <v>956.4643772935783</v>
+        <v>957.8944744940584</v>
       </c>
       <c r="X30" t="n">
-        <v>801.5969415324583</v>
+        <v>803.0270387329383</v>
       </c>
       <c r="Y30" t="n">
-        <v>675.1111623116791</v>
+        <v>676.5412595121591</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1033.453034565634</v>
+        <v>1104.957894589636</v>
       </c>
       <c r="C31" t="n">
-        <v>860.8913230488589</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D31" t="n">
-        <v>695.0133302503816</v>
+        <v>766.5181902743841</v>
       </c>
       <c r="E31" t="n">
-        <v>525.2553265011188</v>
+        <v>596.7601865251213</v>
       </c>
       <c r="F31" t="n">
-        <v>348.548272462875</v>
+        <v>420.0531324868775</v>
       </c>
       <c r="G31" t="n">
-        <v>183.8070920753935</v>
+        <v>255.311952099396</v>
       </c>
       <c r="H31" t="n">
-        <v>58.44250771447989</v>
+        <v>122.9678914787119</v>
       </c>
       <c r="I31" t="n">
-        <v>58.44250771447989</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="J31" t="n">
-        <v>203.9278565813528</v>
+        <v>118.7782686171431</v>
       </c>
       <c r="K31" t="n">
-        <v>300.7279571489111</v>
+        <v>219.7541432517691</v>
       </c>
       <c r="L31" t="n">
-        <v>842.8086405351701</v>
+        <v>761.8348266380279</v>
       </c>
       <c r="M31" t="n">
-        <v>1432.896900054612</v>
+        <v>1351.92308615747</v>
       </c>
       <c r="N31" t="n">
-        <v>2002.654615016146</v>
+        <v>1921.680801119005</v>
       </c>
       <c r="O31" t="n">
-        <v>2540.08974558969</v>
+        <v>2459.115931692548</v>
       </c>
       <c r="P31" t="n">
-        <v>2667.694246952239</v>
+        <v>2907.391881840573</v>
       </c>
       <c r="Q31" t="n">
-        <v>2905.654293047227</v>
+        <v>2977.159153071229</v>
       </c>
       <c r="R31" t="n">
-        <v>2922.125385723994</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="S31" t="n">
-        <v>2777.698847228229</v>
+        <v>2849.203707252232</v>
       </c>
       <c r="T31" t="n">
-        <v>2535.451623131636</v>
+        <v>2606.956483155638</v>
       </c>
       <c r="U31" t="n">
-        <v>2257.064991180378</v>
+        <v>2328.569851204381</v>
       </c>
       <c r="V31" t="n">
-        <v>1970.109483050809</v>
+        <v>2041.614343074811</v>
       </c>
       <c r="W31" t="n">
-        <v>1698.0830786371</v>
+        <v>1769.587938661103</v>
       </c>
       <c r="X31" t="n">
-        <v>1452.691323970513</v>
+        <v>1524.196183994515</v>
       </c>
       <c r="Y31" t="n">
-        <v>1225.271653284621</v>
+        <v>1296.776513308624</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1129.320251577774</v>
+        <v>2195.069728310112</v>
       </c>
       <c r="C32" t="n">
-        <v>691.1777787611977</v>
+        <v>1756.927255493536</v>
       </c>
       <c r="D32" t="n">
-        <v>691.1777787611977</v>
+        <v>1321.01747066798</v>
       </c>
       <c r="E32" t="n">
-        <v>456.0700959916806</v>
+        <v>887.2427258262751</v>
       </c>
       <c r="F32" t="n">
-        <v>456.0700959916806</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="G32" t="n">
-        <v>56.56740467115775</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H32" t="n">
-        <v>56.56740467115775</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I32" t="n">
-        <v>127.7673549223384</v>
+        <v>131.0725551661405</v>
       </c>
       <c r="J32" t="n">
-        <v>720.6688176187016</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K32" t="n">
-        <v>956.9404679979225</v>
+        <v>976.4735309700051</v>
       </c>
       <c r="L32" t="n">
-        <v>1250.056342861823</v>
+        <v>1269.589405833906</v>
       </c>
       <c r="M32" t="n">
-        <v>1576.204231030611</v>
+        <v>1595.737294002693</v>
       </c>
       <c r="N32" t="n">
-        <v>1907.629533007088</v>
+        <v>1927.16259597917</v>
       </c>
       <c r="O32" t="n">
-        <v>2220.58504754838</v>
+        <v>2240.118110520463</v>
       </c>
       <c r="P32" t="n">
-        <v>2487.685338727649</v>
+        <v>2507.218401699732</v>
       </c>
       <c r="Q32" t="n">
-        <v>2688.266533738717</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R32" t="n">
-        <v>2828.370233557887</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="S32" t="n">
-        <v>2787.903863772684</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T32" t="n">
-        <v>2787.903863772684</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="U32" t="n">
-        <v>2787.903863772684</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="V32" t="n">
-        <v>2787.903863772684</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="W32" t="n">
-        <v>2383.048409183718</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="X32" t="n">
-        <v>1963.905945763029</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="Y32" t="n">
-        <v>1555.619822062682</v>
+        <v>2621.36929879502</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>551.9321581885938</v>
+        <v>555.2373584323959</v>
       </c>
       <c r="C33" t="n">
-        <v>445.4756970252361</v>
+        <v>448.7808972690382</v>
       </c>
       <c r="D33" t="n">
-        <v>350.3854081717893</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E33" t="n">
-        <v>256.264993498743</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F33" t="n">
-        <v>172.8811551149046</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G33" t="n">
-        <v>88.5100547045615</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H33" t="n">
-        <v>56.56740467115775</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I33" t="n">
-        <v>90.78414084263386</v>
+        <v>94.08934108643594</v>
       </c>
       <c r="J33" t="n">
-        <v>184.677480189101</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K33" t="n">
-        <v>345.1561522432712</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L33" t="n">
-        <v>560.9395311182935</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M33" t="n">
-        <v>812.748556420991</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N33" t="n">
-        <v>1071.222217342311</v>
+        <v>1074.527417586113</v>
       </c>
       <c r="O33" t="n">
-        <v>1307.675120156842</v>
+        <v>1310.980320400644</v>
       </c>
       <c r="P33" t="n">
-        <v>1497.449420721647</v>
+        <v>1500.75462096545</v>
       </c>
       <c r="Q33" t="n">
-        <v>1624.308514929882</v>
+        <v>1627.613715173684</v>
       </c>
       <c r="R33" t="n">
-        <v>1686.011969355795</v>
+        <v>1689.317169599597</v>
       </c>
       <c r="S33" t="n">
-        <v>1641.390938755529</v>
+        <v>1644.696138999331</v>
       </c>
       <c r="T33" t="n">
-        <v>1515.299383631182</v>
+        <v>1518.604583874984</v>
       </c>
       <c r="U33" t="n">
-        <v>1339.029546455063</v>
+        <v>1342.334746698865</v>
       </c>
       <c r="V33" t="n">
-        <v>1139.912028517062</v>
+        <v>1143.217228760864</v>
       </c>
       <c r="W33" t="n">
-        <v>954.5892742502563</v>
+        <v>957.8944744940584</v>
       </c>
       <c r="X33" t="n">
-        <v>799.7218384891362</v>
+        <v>803.0270387329383</v>
       </c>
       <c r="Y33" t="n">
-        <v>673.2360592683569</v>
+        <v>676.5412595121591</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>939.6978823995269</v>
+        <v>1104.957894589636</v>
       </c>
       <c r="C34" t="n">
-        <v>865.9956962653072</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D34" t="n">
-        <v>700.1177034668299</v>
+        <v>766.5181902743841</v>
       </c>
       <c r="E34" t="n">
-        <v>530.3596997175672</v>
+        <v>596.7601865251213</v>
       </c>
       <c r="F34" t="n">
-        <v>353.6526456793234</v>
+        <v>420.0531324868775</v>
       </c>
       <c r="G34" t="n">
-        <v>188.9114652918419</v>
+        <v>255.311952099396</v>
       </c>
       <c r="H34" t="n">
-        <v>56.56740467115775</v>
+        <v>122.9678914787119</v>
       </c>
       <c r="I34" t="n">
-        <v>56.56740467115775</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="J34" t="n">
-        <v>202.0527535380307</v>
+        <v>118.7782686171431</v>
       </c>
       <c r="K34" t="n">
-        <v>298.852854105589</v>
+        <v>490.3368237558368</v>
       </c>
       <c r="L34" t="n">
-        <v>840.9335374918479</v>
+        <v>1032.417507142096</v>
       </c>
       <c r="M34" t="n">
-        <v>1431.02179701129</v>
+        <v>1622.505766661538</v>
       </c>
       <c r="N34" t="n">
-        <v>2000.779511972824</v>
+        <v>2173.157275480454</v>
       </c>
       <c r="O34" t="n">
-        <v>2538.214642546368</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P34" t="n">
-        <v>2638.983698724051</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q34" t="n">
-        <v>2811.89914088112</v>
+        <v>2977.159153071229</v>
       </c>
       <c r="R34" t="n">
-        <v>2828.370233557887</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="S34" t="n">
-        <v>2683.943695062122</v>
+        <v>2849.203707252232</v>
       </c>
       <c r="T34" t="n">
-        <v>2441.696470965529</v>
+        <v>2606.956483155638</v>
       </c>
       <c r="U34" t="n">
-        <v>2163.309839014271</v>
+        <v>2328.569851204381</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.354330884702</v>
+        <v>2041.614343074811</v>
       </c>
       <c r="W34" t="n">
-        <v>1604.327926470993</v>
+        <v>1769.587938661103</v>
       </c>
       <c r="X34" t="n">
-        <v>1358.936171804406</v>
+        <v>1524.196183994515</v>
       </c>
       <c r="Y34" t="n">
-        <v>1131.516501118514</v>
+        <v>1296.776513308624</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2018.350481558492</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="C35" t="n">
-        <v>1580.208008741915</v>
+        <v>1410.876791836583</v>
       </c>
       <c r="D35" t="n">
-        <v>1144.298223916359</v>
+        <v>974.9670070110278</v>
       </c>
       <c r="E35" t="n">
-        <v>1144.298223916359</v>
+        <v>541.1922621693229</v>
       </c>
       <c r="F35" t="n">
-        <v>716.4307943255671</v>
+        <v>541.1922621693229</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>141.6895708488001</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2018.350481558492</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V35" t="n">
-        <v>2018.350481558492</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W35" t="n">
-        <v>2018.350481558492</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X35" t="n">
-        <v>2018.350481558492</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y35" t="n">
-        <v>2018.350481558492</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="36">
@@ -6995,25 +6995,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>989.0733853696729</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C37" t="n">
-        <v>816.5116738528978</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D37" t="n">
-        <v>650.6336810544205</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E37" t="n">
-        <v>480.8756773051578</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F37" t="n">
-        <v>304.168623266914</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G37" t="n">
-        <v>139.4274428794324</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M37" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N37" t="n">
-        <v>1364.434443083199</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O37" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W37" t="n">
-        <v>1408.311674774552</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X37" t="n">
-        <v>1408.311674774552</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y37" t="n">
-        <v>1180.89200408866</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2148.556325916849</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="C38" t="n">
-        <v>1710.413853100273</v>
+        <v>1410.876791836584</v>
       </c>
       <c r="D38" t="n">
-        <v>1274.504068274717</v>
+        <v>974.9670070110283</v>
       </c>
       <c r="E38" t="n">
-        <v>840.7293234330123</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F38" t="n">
-        <v>412.86189384222</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
         <v>276.0532770435808</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>2148.556325916849</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>2148.556325916849</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W38" t="n">
-        <v>2148.556325916849</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X38" t="n">
-        <v>2148.556325916849</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y38" t="n">
-        <v>2148.556325916849</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>749.9721259575934</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="C40" t="n">
-        <v>749.9721259575934</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D40" t="n">
-        <v>584.0941331591162</v>
+        <v>381.7057356856991</v>
       </c>
       <c r="E40" t="n">
-        <v>584.0941331591162</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F40" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G40" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895474</v>
@@ -7338,16 +7338,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L40" t="n">
-        <v>1106.33113894078</v>
+        <v>733.4227107706877</v>
       </c>
       <c r="M40" t="n">
-        <v>1236.93553127931</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N40" t="n">
-        <v>1364.434443083199</v>
+        <v>1887.361501150537</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527957</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P40" t="n">
         <v>2105.896438675982</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2266.798267934296</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.551043837703</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.164411886446</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1459.208903756876</v>
+        <v>1656.801888486126</v>
       </c>
       <c r="W40" t="n">
-        <v>1187.182499343168</v>
+        <v>1384.775484072418</v>
       </c>
       <c r="X40" t="n">
-        <v>941.7907446765805</v>
+        <v>1139.38372940583</v>
       </c>
       <c r="Y40" t="n">
-        <v>941.7907446765805</v>
+        <v>911.9640587199385</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1955.47212285877</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C41" t="n">
-        <v>1517.329650042194</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D41" t="n">
-        <v>1081.419865216638</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E41" t="n">
-        <v>647.6451203749332</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
-        <v>219.7776907841409</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G41" t="n">
         <v>47.20655154895474</v>
@@ -7408,16 +7408,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7432,31 +7432,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R41" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W41" t="n">
-        <v>1955.47212285877</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X41" t="n">
-        <v>1955.47212285877</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y41" t="n">
-        <v>1955.47212285877</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>858.3289888817353</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C43" t="n">
-        <v>685.7672773649603</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D43" t="n">
-        <v>685.7672773649603</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E43" t="n">
-        <v>516.0092736156976</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F43" t="n">
-        <v>339.3022195774538</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G43" t="n">
-        <v>174.5610391899722</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H43" t="n">
         <v>110.3018381127067</v>
@@ -7575,13 +7575,13 @@
         <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>744.992999204955</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M43" t="n">
-        <v>1329.17407462327</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N43" t="n">
-        <v>1898.931789584804</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O43" t="n">
         <v>2173.32015736263</v>
@@ -7605,16 +7605,16 @@
         <v>2081.94094549648</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.98543736691</v>
+        <v>2028.948289708806</v>
       </c>
       <c r="W43" t="n">
-        <v>1522.959032953202</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.567278286614</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y43" t="n">
-        <v>1050.147607600722</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>882.6190276950331</v>
+        <v>1911.575083962187</v>
       </c>
       <c r="C44" t="n">
-        <v>882.6190276950331</v>
+        <v>1473.43261114561</v>
       </c>
       <c r="D44" t="n">
-        <v>446.7092428694776</v>
+        <v>1037.522826320055</v>
       </c>
       <c r="E44" t="n">
-        <v>446.7092428694776</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F44" t="n">
         <v>446.7092428694776</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7678,22 +7678,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V44" t="n">
-        <v>1486.402314586987</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W44" t="n">
-        <v>1290.90515139538</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X44" t="n">
-        <v>1290.90515139538</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y44" t="n">
-        <v>882.6190276950331</v>
+        <v>1911.575083962187</v>
       </c>
     </row>
     <row r="45">
@@ -7709,22 +7709,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>730.9745012407179</v>
+        <v>985.9288547996778</v>
       </c>
       <c r="C46" t="n">
-        <v>558.4127897239429</v>
+        <v>813.3671432829027</v>
       </c>
       <c r="D46" t="n">
-        <v>558.4127897239429</v>
+        <v>647.4891504844254</v>
       </c>
       <c r="E46" t="n">
-        <v>388.6547859746801</v>
+        <v>477.7311467351627</v>
       </c>
       <c r="F46" t="n">
-        <v>211.9477319364363</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9462364092378</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2232.97308980672</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T46" t="n">
-        <v>2232.97308980672</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U46" t="n">
-        <v>1954.586457855462</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V46" t="n">
-        <v>1667.630949725893</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W46" t="n">
-        <v>1395.604545312184</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="X46" t="n">
-        <v>1150.212790645597</v>
+        <v>1405.167144204557</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7931199597051</v>
+        <v>1177.747473518665</v>
       </c>
     </row>
   </sheetData>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>12.69184184450841</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2.809192913902809</v>
       </c>
       <c r="L6" t="n">
-        <v>4.661621758742733</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.97738883278687</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,16 +8373,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>16.06348641521268</v>
+        <v>12.11751097832509</v>
       </c>
       <c r="K7" t="n">
-        <v>14.89734508311652</v>
+        <v>10.20938170063001</v>
       </c>
       <c r="L7" t="n">
-        <v>14.06428709372781</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3391786404410633</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>11.86484077010271</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>11.14042390876191</v>
       </c>
       <c r="J9" t="n">
-        <v>21.75440028723776</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>36.94091896479665</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,13 +8610,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>37.13925100285415</v>
       </c>
       <c r="K10" t="n">
-        <v>5.365561667968688</v>
+        <v>31.52930186393523</v>
       </c>
       <c r="L10" t="n">
-        <v>32.53395007869804</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -8625,13 +8625,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>32.96672057477706</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>34.17160518172661</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>36.36928463638102</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M16" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>323.2928365343466</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9327,19 +9327,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371569</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>45.75904403825098</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>156.7304232042871</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.158265737157</v>
+        <v>81.48308576736554</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>16.39178053361653</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>456.0429799810081</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>4.217953603098778</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9810,13 +9810,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>244.263639053569</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>456.0429799810081</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10032,19 +10032,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>380.1894240459273</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>4.217953603099431</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>418.9652501553958</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>116.4718834927426</v>
+        <v>37.07772982561255</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>4.217953603098778</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10287,10 +10287,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>27.10651028774286</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>16.3917805336165</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>23.66375306568671</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10518,16 +10518,16 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>427.4268656717438</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>104.1900716428413</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>347.0837767286135</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10986,19 +10986,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>45.75904403825086</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>177.1920849464602</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11223,16 +11223,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M43" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>158.2045317475397</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>156.7304232042867</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.160359774058097</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>15.88483308241033</v>
+        <v>20.27323291946837</v>
       </c>
       <c r="D5" t="n">
-        <v>17.89030308691652</v>
+        <v>18.06287180835735</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>15.9491822243452</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>11.70868769407972</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22846,13 +22846,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -23260,22 +23260,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>14.94085426295976</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>79.57925990787606</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>77.94488786268857</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>53.81683923109064</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>103.0399300069062</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>131.7401403359411</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>131.6676598093628</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>114.8692533779066</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23737,19 +23737,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>214.5478253185804</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>53.4861337707548</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>114.8692533779068</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>39.74643942692018</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>245.8919113014648</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>245.7661864678975</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>56.40206916327423</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>139.6775016064195</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>17.98007248845914</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24262,16 +24262,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>281.2037731823365</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,10 +24451,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>250.6176996312338</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
@@ -24496,19 +24496,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>219.9123923580044</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>346.3942107328827</v>
+        <v>310.949528523566</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>6.909681497172828</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24922,13 +24922,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>196.6803914514658</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>75.72663106724673</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>97.87093012872982</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>173.4861468346818</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>127.5761986489269</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>114.8692533779064</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>102.1862712954188</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>330.0505661880369</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>300.5332114785136</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>50.38825669250154</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>246.0053115744586</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>224.6622365644833</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
@@ -25690,10 +25690,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>305.3969917679806</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>67.40401094798439</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>231.623223818477</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,16 +25867,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>268.1203050721007</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>207.2647084833858</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>42.8350228615995</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>16.90133034620062</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>569311.2537802847</v>
+        <v>567671.7068268465</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>351559.4860643522</v>
+        <v>351559.4860643521</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>444343.86821516</v>
+        <v>444343.8682151601</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>433867.7805714531</v>
+        <v>444343.8682151601</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>420131.8304442654</v>
+        <v>444343.86821516</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>351559.4860643522</v>
+        <v>351559.4860643523</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>351559.4860643523</v>
+        <v>351559.4860643522</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>351559.4860643523</v>
+        <v>351559.4860643522</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>353284.6272006094</v>
       </c>
       <c r="C2" t="n">
-        <v>357012.0930370523</v>
+        <v>356097.0441598826</v>
       </c>
       <c r="D2" t="n">
         <v>361899.4409260257</v>
       </c>
       <c r="E2" t="n">
-        <v>212351.7212561035</v>
+        <v>212351.7212561034</v>
       </c>
       <c r="F2" t="n">
         <v>212351.7212561034</v>
@@ -26334,28 +26334,28 @@
         <v>212351.7212561034</v>
       </c>
       <c r="I2" t="n">
-        <v>255318.8285536324</v>
+        <v>255318.8285536323</v>
       </c>
       <c r="J2" t="n">
         <v>255318.8285536323</v>
       </c>
       <c r="K2" t="n">
-        <v>250467.5036710259</v>
+        <v>255318.8285536323</v>
       </c>
       <c r="L2" t="n">
-        <v>244106.5835542211</v>
+        <v>255318.8285536323</v>
       </c>
       <c r="M2" t="n">
+        <v>212351.7212561034</v>
+      </c>
+      <c r="N2" t="n">
         <v>212351.7212561035</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>212351.7212561034</v>
       </c>
-      <c r="O2" t="n">
-        <v>212351.7212561035</v>
-      </c>
       <c r="P2" t="n">
-        <v>212351.7212561035</v>
+        <v>212351.7212561034</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>18722.57834402382</v>
+        <v>14144.82719286326</v>
       </c>
       <c r="D3" t="n">
-        <v>23154.17487005941</v>
+        <v>27489.28712274751</v>
       </c>
       <c r="E3" t="n">
-        <v>512485.5095559818</v>
+        <v>512485.5095559817</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42102.11971426835</v>
+        <v>42102.11971426842</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3471.332014400406</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>7042.810807378905</v>
       </c>
       <c r="M3" t="n">
-        <v>107595.378864797</v>
+        <v>97299.51484534092</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>296672.6261700522</v>
+        <v>297171.5705065465</v>
       </c>
       <c r="D4" t="n">
-        <v>294007.7252991569</v>
+        <v>294007.725299157</v>
       </c>
       <c r="E4" t="n">
-        <v>13837.47714308861</v>
+        <v>13837.4771430886</v>
       </c>
       <c r="F4" t="n">
-        <v>13837.4771430886</v>
+        <v>13837.47714308859</v>
       </c>
       <c r="G4" t="n">
         <v>13837.4771430886</v>
@@ -26441,16 +26441,16 @@
         <v>38290.18362809524</v>
       </c>
       <c r="J4" t="n">
-        <v>38290.18362809524</v>
+        <v>38290.18362809526</v>
       </c>
       <c r="K4" t="n">
-        <v>35529.28044240171</v>
+        <v>38290.18362809525</v>
       </c>
       <c r="L4" t="n">
-        <v>31909.26219184222</v>
+        <v>38290.18362809525</v>
       </c>
       <c r="M4" t="n">
-        <v>13837.4771430886</v>
+        <v>13837.47714308859</v>
       </c>
       <c r="N4" t="n">
         <v>13837.4771430886</v>
@@ -26472,22 +26472,22 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>35024.43484446587</v>
+        <v>34681.96937349494</v>
       </c>
       <c r="D5" t="n">
         <v>36853.56981021012</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
         <v>55677.28176780177</v>
@@ -26496,13 +26496,13 @@
         <v>55677.28176780177</v>
       </c>
       <c r="K5" t="n">
-        <v>54590.40789543694</v>
+        <v>55677.28176780177</v>
       </c>
       <c r="L5" t="n">
-        <v>53165.32958251211</v>
+        <v>55677.28176780177</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
         <v>46051.08120963782</v>
@@ -26511,7 +26511,7 @@
         <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20926.31088877661</v>
+        <v>20894.40417127493</v>
       </c>
       <c r="C6" t="n">
-        <v>6592.453678510326</v>
+        <v>10077.18672858472</v>
       </c>
       <c r="D6" t="n">
-        <v>7883.970946599286</v>
+        <v>3548.858693911076</v>
       </c>
       <c r="E6" t="n">
-        <v>-360022.3466526048</v>
+        <v>-360576.2270958267</v>
       </c>
       <c r="F6" t="n">
-        <v>152463.162903377</v>
+        <v>151909.2824601551</v>
       </c>
       <c r="G6" t="n">
-        <v>152463.162903377</v>
+        <v>151909.2824601551</v>
       </c>
       <c r="H6" t="n">
-        <v>152463.162903377</v>
+        <v>151909.2824601551</v>
       </c>
       <c r="I6" t="n">
-        <v>119249.243443467</v>
+        <v>118854.5004346802</v>
       </c>
       <c r="J6" t="n">
-        <v>161351.3631577353</v>
+        <v>160956.6201489487</v>
       </c>
       <c r="K6" t="n">
-        <v>160347.8153331873</v>
+        <v>157485.2881345483</v>
       </c>
       <c r="L6" t="n">
-        <v>159031.9917798668</v>
+        <v>153913.8093415697</v>
       </c>
       <c r="M6" t="n">
-        <v>44867.78403858005</v>
+        <v>54609.76761481417</v>
       </c>
       <c r="N6" t="n">
-        <v>152463.162903377</v>
+        <v>151909.2824601551</v>
       </c>
       <c r="O6" t="n">
-        <v>152463.162903377</v>
+        <v>151909.2824601551</v>
       </c>
       <c r="P6" t="n">
-        <v>152463.1629033771</v>
+        <v>151909.2824601551</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14.21839321564385</v>
+        <v>10.74817482675394</v>
       </c>
       <c r="D3" t="n">
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932212</v>
@@ -26792,22 +26792,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>17.87621500600059</v>
+        <v>13.48781516894255</v>
       </c>
       <c r="D4" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
         <v>748.4075614369992</v>
@@ -26816,13 +26816,13 @@
         <v>748.4075614369992</v>
       </c>
       <c r="K4" t="n">
-        <v>730.5313464309986</v>
+        <v>748.4075614369992</v>
       </c>
       <c r="L4" t="n">
-        <v>707.0925583894718</v>
+        <v>748.4075614369992</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>590.0818943619342</v>
@@ -26831,7 +26831,7 @@
         <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14.21839321564385</v>
+        <v>10.74817482675394</v>
       </c>
       <c r="D3" t="n">
-        <v>18.53470884492775</v>
+        <v>22.00492723381766</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9488260326497</v>
+        <v>433.9488260326495</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>17.87621500600059</v>
+        <v>13.48781516894255</v>
       </c>
       <c r="D4" t="n">
-        <v>23.43878804152676</v>
+        <v>27.8271878785848</v>
       </c>
       <c r="E4" t="n">
-        <v>548.766891314407</v>
+        <v>548.7668913144068</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>158.325667075065</v>
+        <v>158.3256670750652</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>13.48781516894255</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>27.8271878785848</v>
       </c>
       <c r="M4" t="n">
-        <v>431.7562272868694</v>
+        <v>390.4412242393418</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.87621500600059</v>
+        <v>13.48781516894255</v>
       </c>
       <c r="L4" t="n">
-        <v>23.43878804152676</v>
+        <v>27.8271878785848</v>
       </c>
       <c r="M4" t="n">
-        <v>548.766891314407</v>
+        <v>548.7668913144068</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3266936932576</v>
+        <v>397.3406443199466</v>
       </c>
       <c r="H5" t="n">
-        <v>285.6534696161618</v>
+        <v>285.7963414717406</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>81.51283594070897</v>
+        <v>81.83073584638466</v>
       </c>
       <c r="T5" t="n">
-        <v>217.6163397147813</v>
+        <v>217.6774085831124</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6255069065764</v>
+        <v>256.6266229567115</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120.0908620689655</v>
+        <v>106.603046900023</v>
       </c>
       <c r="C6" t="n">
         <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>94.13938596491228</v>
+        <v>80.65157079596973</v>
       </c>
       <c r="E6" t="n">
-        <v>93.17921052631581</v>
+        <v>79.69139535737327</v>
       </c>
       <c r="F6" t="n">
-        <v>64.6737849939994</v>
+        <v>70.6699323991954</v>
       </c>
       <c r="G6" t="n">
-        <v>68.7552857002005</v>
+        <v>84.50812012081286</v>
       </c>
       <c r="H6" t="n">
-        <v>23.14671365726182</v>
+        <v>41.09501753960519</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>44.37660312039967</v>
+        <v>62.39146317240921</v>
       </c>
       <c r="T6" t="n">
-        <v>128.7535864462405</v>
+        <v>128.7836725849139</v>
       </c>
       <c r="U6" t="n">
-        <v>174.5711694932556</v>
+        <v>174.5716605618955</v>
       </c>
       <c r="V6" t="n">
         <v>197.1263427586206</v>
@@ -27788,13 +27788,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>148.1643523216745</v>
+        <v>163.915980269825</v>
       </c>
       <c r="H7" t="n">
-        <v>120.3989770922516</v>
+        <v>138.3308293701265</v>
       </c>
       <c r="I7" t="n">
-        <v>69.12607825563886</v>
+        <v>73.70266632926162</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>20.05078778914783</v>
+        <v>6.8443447538356</v>
       </c>
       <c r="S7" t="n">
-        <v>157.2021245265507</v>
+        <v>157.3111804060835</v>
       </c>
       <c r="T7" t="n">
-        <v>225.4348853970442</v>
+        <v>243.3378381512871</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6472722089455</v>
+        <v>262.1597983729592</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>257.4260727687668</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -27937,19 +27937,19 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E9" t="n">
-        <v>56.11184910989698</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F9" t="n">
-        <v>41.23499695247265</v>
+        <v>46.15974531573791</v>
       </c>
       <c r="G9" t="n">
         <v>43.14578572036749</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28061,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>115.304645464995</v>
+        <v>156.6196485125224</v>
       </c>
       <c r="T10" t="n">
-        <v>201.8532889431057</v>
+        <v>243.1682919906331</v>
       </c>
       <c r="U10" t="n">
-        <v>257.8031515728463</v>
+        <v>234.3304460753022</v>
       </c>
       <c r="V10" t="n">
         <v>242.7709500007465</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>225.0955395699384</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05715936971113102</v>
+        <v>0.04320874302212636</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5853833950541207</v>
+        <v>0.4425115394753517</v>
       </c>
       <c r="I5" t="n">
-        <v>2.203636600788381</v>
+        <v>1.665805065360528</v>
       </c>
       <c r="J5" t="n">
-        <v>4.851330055020111</v>
+        <v>3.6672880530742</v>
       </c>
       <c r="K5" t="n">
-        <v>7.270886174892288</v>
+        <v>5.49631414520081</v>
       </c>
       <c r="L5" t="n">
-        <v>9.020177235689316</v>
+        <v>6.81866371446421</v>
       </c>
       <c r="M5" t="n">
-        <v>10.03668517678964</v>
+        <v>7.58707719818395</v>
       </c>
       <c r="N5" t="n">
-        <v>10.19908923598139</v>
+        <v>7.709844039295567</v>
       </c>
       <c r="O5" t="n">
-        <v>9.630710753416334</v>
+        <v>7.280187100869298</v>
       </c>
       <c r="P5" t="n">
-        <v>8.219588813672786</v>
+        <v>6.213471257510552</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.172568885892904</v>
+        <v>4.66605814803065</v>
       </c>
       <c r="R5" t="n">
-        <v>3.590537257616837</v>
+        <v>2.714211203863647</v>
       </c>
       <c r="S5" t="n">
-        <v>1.302519137292399</v>
+        <v>0.9846192316167053</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2502151409104761</v>
+        <v>0.1891462725793582</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004572749576890481</v>
+        <v>0.003456699441770108</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03058295899213961</v>
+        <v>0.02311871566509338</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2953669986872431</v>
+        <v>0.2232781223444545</v>
       </c>
       <c r="I6" t="n">
-        <v>1.052965912667965</v>
+        <v>0.7959733244341362</v>
       </c>
       <c r="J6" t="n">
-        <v>2.889418945831927</v>
+        <v>2.184211640972704</v>
       </c>
       <c r="K6" t="n">
-        <v>4.93847719830528</v>
+        <v>3.73316559053396</v>
       </c>
       <c r="L6" t="n">
-        <v>6.640392039060839</v>
+        <v>5.019701837721263</v>
       </c>
       <c r="M6" t="n">
-        <v>7.749024302525898</v>
+        <v>5.857755280580895</v>
       </c>
       <c r="N6" t="n">
-        <v>7.95411791787231</v>
+        <v>6.012792632563037</v>
       </c>
       <c r="O6" t="n">
-        <v>7.276463931783321</v>
+        <v>5.500530564404914</v>
       </c>
       <c r="P6" t="n">
-        <v>5.840003809648133</v>
+        <v>4.414660713275595</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.90388788818961</v>
+        <v>2.951083775074025</v>
       </c>
       <c r="R6" t="n">
-        <v>1.898826173213721</v>
+        <v>1.435388328750272</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5680650497004875</v>
+        <v>0.4294200036915368</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1232707864639311</v>
+        <v>0.09318464779044214</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002012036775798659</v>
+        <v>0.001520968135861407</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02563972547083317</v>
+        <v>0.01938195460562185</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2279604682770442</v>
+        <v>0.1723231964027108</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7710564714319651</v>
+        <v>0.5828682348672465</v>
       </c>
       <c r="J7" t="n">
-        <v>1.812728590787905</v>
+        <v>1.370304190617465</v>
       </c>
       <c r="K7" t="n">
-        <v>2.978869922884072</v>
+        <v>2.251830725998611</v>
       </c>
       <c r="L7" t="n">
-        <v>3.81192791227278</v>
+        <v>2.881568051093999</v>
       </c>
       <c r="M7" t="n">
-        <v>4.019143511759785</v>
+        <v>3.038209484224887</v>
       </c>
       <c r="N7" t="n">
-        <v>3.923577262277592</v>
+        <v>2.965967653422117</v>
       </c>
       <c r="O7" t="n">
-        <v>3.624058651095585</v>
+        <v>2.739551183710988</v>
       </c>
       <c r="P7" t="n">
-        <v>3.101008251490585</v>
+        <v>2.3441593097563</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.146977375562221</v>
+        <v>1.622974398839845</v>
       </c>
       <c r="R7" t="n">
-        <v>1.152855292534008</v>
+        <v>0.8714831589036879</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4468304884326107</v>
+        <v>0.3377746088997917</v>
       </c>
       <c r="T7" t="n">
-        <v>0.109551554284469</v>
+        <v>0.08281380604220245</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001398530480227266</v>
+        <v>0.001057197523943012</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31755,31 +31755,31 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H11" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699062</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31788,10 +31788,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J13" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998885</v>
@@ -31940,19 +31940,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R13" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562285</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,10 +32563,10 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
@@ -32575,13 +32575,13 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32788,7 +32788,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -33034,13 +33034,13 @@
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917233</v>
@@ -33259,7 +33259,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916768</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -33268,7 +33268,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -33517,7 +33517,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
@@ -33751,7 +33751,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917233</v>
@@ -33991,7 +33991,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
@@ -34234,7 +34234,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
@@ -34444,7 +34444,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -34932,34 +34932,34 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1.791015121656983</v>
+        <v>1.25318358622913</v>
       </c>
       <c r="J5" t="n">
-        <v>4.851330055020111</v>
+        <v>3.6672880530742</v>
       </c>
       <c r="K5" t="n">
-        <v>7.270886174892288</v>
+        <v>5.49631414520081</v>
       </c>
       <c r="L5" t="n">
-        <v>9.020177235689316</v>
+        <v>6.818663714464215</v>
       </c>
       <c r="M5" t="n">
-        <v>10.03668517678964</v>
+        <v>7.587077198183948</v>
       </c>
       <c r="N5" t="n">
-        <v>10.19908923598139</v>
+        <v>7.709844039295568</v>
       </c>
       <c r="O5" t="n">
-        <v>9.630710753416338</v>
+        <v>7.280187100869298</v>
       </c>
       <c r="P5" t="n">
-        <v>8.219588813672793</v>
+        <v>6.213471257510555</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.172568885892908</v>
+        <v>4.66605814803065</v>
       </c>
       <c r="R5" t="n">
-        <v>3.59053725761683</v>
+        <v>2.714211203863641</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.052965912667965</v>
+        <v>13.48781516894255</v>
       </c>
       <c r="J6" t="n">
-        <v>2.889418945831927</v>
+        <v>2.184211640972704</v>
       </c>
       <c r="K6" t="n">
-        <v>4.93847719830528</v>
+        <v>6.54235850443677</v>
       </c>
       <c r="L6" t="n">
-        <v>11.30201379780357</v>
+        <v>5.019701837721264</v>
       </c>
       <c r="M6" t="n">
-        <v>7.749024302525896</v>
+        <v>5.857755280580896</v>
       </c>
       <c r="N6" t="n">
-        <v>7.95411791787231</v>
+        <v>6.012792632563034</v>
       </c>
       <c r="O6" t="n">
-        <v>7.276463931783319</v>
+        <v>5.500530564404912</v>
       </c>
       <c r="P6" t="n">
-        <v>5.840003809648131</v>
+        <v>4.414660713275595</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.903887888189608</v>
+        <v>2.951083775074025</v>
       </c>
       <c r="R6" t="n">
-        <v>17.87621500600059</v>
+        <v>1.435388328750271</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.87621500600059</v>
+        <v>13.48781516894255</v>
       </c>
       <c r="K7" t="n">
-        <v>17.87621500600059</v>
+        <v>12.46121242662863</v>
       </c>
       <c r="L7" t="n">
-        <v>17.87621500600059</v>
+        <v>2.881568051094</v>
       </c>
       <c r="M7" t="n">
-        <v>4.358322152200849</v>
+        <v>3.038209484224886</v>
       </c>
       <c r="N7" t="n">
-        <v>3.92357726227759</v>
+        <v>2.965967653422119</v>
       </c>
       <c r="O7" t="n">
-        <v>3.624058651095588</v>
+        <v>2.739551183710986</v>
       </c>
       <c r="P7" t="n">
-        <v>3.101008251490583</v>
+        <v>2.3441593097563</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.146977375562216</v>
+        <v>13.48781516894255</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>11.17539134075754</v>
       </c>
       <c r="K8" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L8" t="n">
-        <v>20.77863378260765</v>
+        <v>20.77863378260766</v>
       </c>
       <c r="M8" t="n">
-        <v>23.12023369725968</v>
+        <v>23.12023369725966</v>
       </c>
       <c r="N8" t="n">
         <v>23.49434324994148</v>
       </c>
       <c r="O8" t="n">
-        <v>22.18504210978143</v>
+        <v>22.18504210978145</v>
       </c>
       <c r="P8" t="n">
-        <v>18.93442017160915</v>
+        <v>18.93442017160913</v>
       </c>
       <c r="Q8" t="n">
         <v>14.21896100560221</v>
       </c>
       <c r="R8" t="n">
-        <v>8.271063506783463</v>
+        <v>8.271063506783435</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>28.75252608797635</v>
+        <v>13.56600741041745</v>
       </c>
       <c r="J9" t="n">
-        <v>28.41038681069788</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K9" t="n">
         <v>11.37614111852891</v>
@@ -35269,13 +35269,13 @@
         <v>16.76186346679083</v>
       </c>
       <c r="P9" t="n">
-        <v>13.45287318408649</v>
+        <v>13.45287318408647</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.99288945632901</v>
+        <v>8.992889456329024</v>
       </c>
       <c r="R9" t="n">
-        <v>4.37408408273069</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.175752044673201</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>12.22760501770811</v>
+        <v>38.39134521367465</v>
       </c>
       <c r="L10" t="n">
-        <v>41.31500304752735</v>
+        <v>8.781052968829314</v>
       </c>
       <c r="M10" t="n">
-        <v>9.258389161154689</v>
+        <v>9.258389161154682</v>
       </c>
       <c r="N10" t="n">
         <v>9.038245360419708</v>
       </c>
       <c r="O10" t="n">
+        <v>8.348282472750284</v>
+      </c>
+      <c r="P10" t="n">
+        <v>7.143397865800722</v>
+      </c>
+      <c r="Q10" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P10" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4.945718411146316</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916724</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35570,10 +35570,10 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
         <v>309.1157135712374</v>
@@ -35582,7 +35582,7 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
@@ -35591,7 +35591,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,28 +35643,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562285</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R15" t="n">
         <v>62.32672164233622</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N16" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O16" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P16" t="n">
-        <v>425.0797619663501</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P17" t="n">
         <v>269.7982739184536</v>
@@ -35907,7 +35907,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619341</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
-        <v>147.5459694702545</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766674</v>
@@ -36132,7 +36132,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
@@ -36144,7 +36144,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36211,7 +36211,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>281.8524450409517</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>213.4067143921427</v>
       </c>
       <c r="N22" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36357,16 +36357,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>598.8903663599629</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>255.0500132399003</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36375,10 +36375,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>658.6502476689552</v>
       </c>
       <c r="R23" t="n">
         <v>288.7178273103004</v>
@@ -36436,19 +36436,19 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572664</v>
+        <v>101.9958329642687</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
-        <v>596.0487469893358</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N25" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>346.0505644855725</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36594,28 +36594,28 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>725.8412538994619</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R26" t="n">
         <v>288.7178273103004</v>
@@ -36682,13 +36682,13 @@
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247772</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N28" t="n">
-        <v>508.9762036458158</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.3636829242305</v>
+        <v>74.68994474517604</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36831,31 +36831,31 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>598.8903663599629</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>748.4075614369991</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>319.0791511806897</v>
+        <v>239.6849975135597</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916768</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>101.9958329642687</v>
       </c>
       <c r="L31" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>596.0487469893358</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>128.8934357197463</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37071,10 +37071,10 @@
         <v>598.8903663599629</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>255.0500132399003</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37083,7 +37083,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
@@ -37092,7 +37092,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>141.5188887062327</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916768</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37159,13 +37159,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M34" t="n">
-        <v>596.0487469893358</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>556.2136452716322</v>
       </c>
       <c r="O34" t="n">
-        <v>542.8637682561045</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q34" t="n">
-        <v>174.6620627849179</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>466.0392124334235</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
         <v>70.4719911420766</v>
@@ -37542,7 +37542,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125712</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -37706,19 +37706,19 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>547.556245844706</v>
+        <v>170.8810658749154</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O40" t="n">
-        <v>296.14752065127</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
         <v>240.36368292423</v>
@@ -37779,13 +37779,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125712</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37797,13 +37797,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37943,7 +37943,7 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>547.5562458447062</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M43" t="n">
         <v>590.0818943619342</v>
@@ -37952,7 +37952,7 @@
         <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
-        <v>277.1599674523495</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
         <v>101.7869254320035</v>
@@ -38016,7 +38016,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
@@ -38025,13 +38025,13 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>281.8524450409513</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561043</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
